--- a/result/results of Classification Accuracy.xlsx
+++ b/result/results of Classification Accuracy.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
   <si>
     <t>ST</t>
   </si>
@@ -74,6 +74,10 @@
   </si>
   <si>
     <t>Symbols</t>
+  </si>
+  <si>
+    <t>SSHVG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -440,17 +444,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection sqref="A1:I32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="24.5" customWidth="1"/>
     <col min="2" max="2" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="7.75" customWidth="1"/>
-    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.625" customWidth="1"/>
+    <col min="5" max="5" width="7.75" customWidth="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.15">
@@ -461,21 +464,24 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -490,23 +496,27 @@
         <v>0.52200000000000002</v>
       </c>
       <c r="D2" s="1">
+        <v>0.79028132992327305</v>
+      </c>
+      <c r="E2" s="1">
         <v>0.78500000000000003</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>0.73199999999999998</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>0.72599999999999998</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>0.58299999999999996</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>0.59299999999999997</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>0.51600000000000001</v>
       </c>
+      <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -537,24 +547,28 @@
         <v>0.86699999999999999</v>
       </c>
       <c r="D3" s="1">
+        <v>0.63333333333333297</v>
+      </c>
+      <c r="E3" s="1">
         <v>0.83299999999999996</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>0.63300000000000001</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>0.60899999999999999</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>0.50700000000000001</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>0.56699999999999995</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>0.32400000000000001</v>
       </c>
-      <c r="L3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="2"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -584,23 +598,27 @@
         <v>0.59199999999999997</v>
       </c>
       <c r="D4" s="1">
+        <v>0.70963541666666596</v>
+      </c>
+      <c r="E4" s="1">
         <v>0.64300000000000002</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>0.65800000000000003</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>0.67100000000000004</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>0.55300000000000005</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>0.54600000000000004</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>0.57199999999999995</v>
       </c>
+      <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -631,24 +649,28 @@
         <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>0.96428571428571397</v>
       </c>
       <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
         <v>0.96399999999999997</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>0.96</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>0.96099999999999997</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>0.92900000000000005</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>0.76900000000000002</v>
       </c>
-      <c r="L5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="2"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -678,23 +700,27 @@
         <v>0.98</v>
       </c>
       <c r="D6" s="1">
+        <v>0.91503267973856195</v>
+      </c>
+      <c r="E6" s="1">
         <v>0.85599999999999998</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>0.77900000000000003</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>0.76900000000000002</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>0.89600000000000002</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>0.86599999999999999</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>0.77400000000000002</v>
       </c>
+      <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -725,23 +751,27 @@
         <v>0.96</v>
       </c>
       <c r="D7" s="1">
+        <v>0.95140913508260405</v>
+      </c>
+      <c r="E7" s="1">
         <v>0.94</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>0.94399999999999995</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>0.95099999999999996</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>0.92</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>0.91700000000000004</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>0.92400000000000004</v>
       </c>
+      <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -772,23 +802,27 @@
         <v>0.79500000000000004</v>
       </c>
       <c r="D8" s="1">
+        <v>0.73972602739726001</v>
+      </c>
+      <c r="E8" s="1">
         <v>0.74</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>0.72599999999999998</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>0.69499999999999995</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>0.65200000000000002</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>0.64400000000000002</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>0.63500000000000001</v>
       </c>
+      <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -819,23 +853,27 @@
         <v>0.66400000000000003</v>
       </c>
       <c r="D9" s="1">
+        <v>0.73552631578947303</v>
+      </c>
+      <c r="E9" s="1">
         <v>0.71199999999999997</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>0.69699999999999995</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>0.68600000000000005</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>0.67600000000000005</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>0.624</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>0.52900000000000003</v>
       </c>
+      <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -866,23 +904,27 @@
         <v>0.88300000000000001</v>
       </c>
       <c r="D10" s="1">
+        <v>0.93929712460063897</v>
+      </c>
+      <c r="E10" s="1">
         <v>0.89500000000000002</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>0.95199999999999996</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>0.85399999999999998</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>0.78300000000000003</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>0.77700000000000002</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <v>0.81499999999999995</v>
       </c>
+      <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -913,23 +955,27 @@
         <v>0.93200000000000005</v>
       </c>
       <c r="D11" s="1">
+        <v>0.92261306532663301</v>
+      </c>
+      <c r="E11" s="1">
         <v>0.95099999999999996</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>0.755</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <v>0.86399999999999999</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>0.86499999999999999</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>0.93400000000000005</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <v>0.79500000000000004</v>
       </c>
+      <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -960,7 +1006,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -969,14 +1015,18 @@
         <v>1</v>
       </c>
       <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
         <v>0.96499999999999997</v>
       </c>
-      <c r="H12" s="1">
-        <v>1</v>
-      </c>
       <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
         <v>0.93400000000000005</v>
       </c>
+      <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -1007,23 +1057,27 @@
         <v>0.996</v>
       </c>
       <c r="D13" s="1">
+        <v>0.97366110623353797</v>
+      </c>
+      <c r="E13" s="1">
         <v>0.98599999999999999</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>0.99099999999999999</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="1">
         <v>0.95799999999999996</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>0.86699999999999999</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
         <v>0.92400000000000004</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J13" s="1">
         <v>0.91400000000000003</v>
       </c>
+      <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -1051,21 +1105,25 @@
         <v>0.84899999999999998</v>
       </c>
       <c r="D14" s="3">
+        <f>AVERAGE(D2:D13)</f>
+        <v>0.85456677069814113</v>
+      </c>
+      <c r="E14" s="3">
         <v>0.86199999999999999</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>0.81899999999999995</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>0.81200000000000006</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>0.76900000000000002</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>0.77700000000000002</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>0.70799999999999996</v>
       </c>
       <c r="L14" s="3"/>
@@ -1096,6 +1154,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B18" s="1"/>
@@ -1106,6 +1165,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
@@ -1115,21 +1175,24 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" t="s">
         <v>14</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>15</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>2</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>16</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>3</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1138,29 +1201,41 @@
         <v>4</v>
       </c>
       <c r="B20" s="2">
+        <v>3</v>
+      </c>
+      <c r="C20" s="2">
+        <v>8</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
         <v>2</v>
-      </c>
-      <c r="C20" s="2">
-        <v>7</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2">
-        <v>3</v>
       </c>
       <c r="F20" s="2">
         <v>4</v>
       </c>
       <c r="G20" s="2">
+        <v>5</v>
+      </c>
+      <c r="H20" s="2">
+        <v>7</v>
+      </c>
+      <c r="I20" s="2">
         <v>6</v>
       </c>
-      <c r="H20" s="2">
-        <v>5</v>
-      </c>
-      <c r="I20" s="2">
-        <v>8</v>
-      </c>
+      <c r="J20" s="2">
+        <v>9</v>
+      </c>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
@@ -1173,89 +1248,117 @@
         <v>2</v>
       </c>
       <c r="D21" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="E21" s="2">
         <v>3</v>
       </c>
-      <c r="E21" s="2">
-        <v>4</v>
-      </c>
       <c r="F21" s="2">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G21" s="2">
+        <v>6</v>
+      </c>
+      <c r="H21" s="2">
+        <v>8</v>
+      </c>
+      <c r="I21" s="2">
         <v>7</v>
       </c>
-      <c r="H21" s="2">
-        <v>6</v>
-      </c>
-      <c r="I21" s="2">
-        <v>8</v>
-      </c>
+      <c r="J21" s="2">
+        <v>9</v>
+      </c>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22" s="2">
+        <v>6</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
         <v>5</v>
       </c>
-      <c r="D22" s="2">
+      <c r="F22" s="2">
         <v>4</v>
       </c>
-      <c r="E22" s="2">
+      <c r="G22" s="2">
         <v>3</v>
-      </c>
-      <c r="F22" s="2">
-        <v>2</v>
-      </c>
-      <c r="G22" s="2">
-        <v>7</v>
       </c>
       <c r="H22" s="2">
         <v>8</v>
       </c>
       <c r="I22" s="2">
-        <v>6</v>
-      </c>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="J22" s="2">
+        <v>7</v>
+      </c>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>18</v>
       </c>
       <c r="B23" s="2">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="C23" s="2">
         <v>1.5</v>
       </c>
       <c r="D23" s="2">
+        <v>4</v>
+      </c>
+      <c r="E23" s="2">
         <v>1.5</v>
       </c>
-      <c r="E23" s="2">
-        <v>3.5</v>
-      </c>
       <c r="F23" s="2">
+        <v>4</v>
+      </c>
+      <c r="G23" s="2">
+        <v>7</v>
+      </c>
+      <c r="H23" s="2">
         <v>6</v>
-      </c>
-      <c r="G23" s="2">
-        <v>5</v>
-      </c>
-      <c r="H23" s="2">
-        <v>7</v>
       </c>
       <c r="I23" s="2">
         <v>8</v>
       </c>
+      <c r="J23" s="2">
+        <v>9</v>
+      </c>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
@@ -1268,52 +1371,69 @@
         <v>1</v>
       </c>
       <c r="D24" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E24" s="2">
         <v>6</v>
       </c>
       <c r="F24" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G24" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H24" s="2">
         <v>4</v>
       </c>
       <c r="I24" s="2">
-        <v>7</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="J24" s="2">
+        <v>8</v>
+      </c>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>8</v>
       </c>
       <c r="B25" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
       </c>
       <c r="D25" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="E25" s="2">
+        <v>6</v>
+      </c>
+      <c r="F25" s="2">
         <v>5</v>
       </c>
-      <c r="E25" s="2">
-        <v>4</v>
-      </c>
-      <c r="F25" s="2">
-        <v>2</v>
-      </c>
       <c r="G25" s="2">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="H25" s="2">
         <v>8</v>
       </c>
       <c r="I25" s="2">
-        <v>6</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="J25" s="2">
+        <v>7</v>
+      </c>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
@@ -1328,19 +1448,19 @@
         <v>9</v>
       </c>
       <c r="B26" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2">
         <v>2.5</v>
-      </c>
-      <c r="C26" s="2">
-        <v>1</v>
-      </c>
-      <c r="D26" s="2">
-        <v>4</v>
       </c>
       <c r="E26" s="2">
         <v>2.5</v>
       </c>
       <c r="F26" s="2">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G26" s="2">
         <v>6</v>
@@ -1351,6 +1471,11 @@
       <c r="I26" s="2">
         <v>8</v>
       </c>
+      <c r="J26" s="2">
+        <v>9</v>
+      </c>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
@@ -1365,10 +1490,10 @@
         <v>10</v>
       </c>
       <c r="B27" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C27" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D27" s="2">
         <v>1</v>
@@ -1383,11 +1508,16 @@
         <v>4</v>
       </c>
       <c r="H27" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I27" s="2">
         <v>8</v>
       </c>
+      <c r="J27" s="2">
+        <v>9</v>
+      </c>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
@@ -1402,29 +1532,34 @@
         <v>11</v>
       </c>
       <c r="B28" s="2">
+        <v>3</v>
+      </c>
+      <c r="C28" s="2">
+        <v>5</v>
+      </c>
+      <c r="D28" s="2">
         <v>2</v>
       </c>
-      <c r="C28" s="2">
+      <c r="E28" s="2">
         <v>4</v>
       </c>
-      <c r="D28" s="2">
-        <v>3</v>
-      </c>
-      <c r="E28" s="2">
-        <v>1</v>
-      </c>
       <c r="F28" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G28" s="2">
+        <v>6</v>
+      </c>
+      <c r="H28" s="2">
         <v>8</v>
       </c>
-      <c r="H28" s="2">
+      <c r="I28" s="2">
+        <v>9</v>
+      </c>
+      <c r="J28" s="2">
         <v>7</v>
       </c>
-      <c r="I28" s="2">
-        <v>6</v>
-      </c>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
@@ -1439,29 +1574,34 @@
         <v>19</v>
       </c>
       <c r="B29" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C29" s="2">
         <v>3</v>
       </c>
       <c r="D29" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2">
+        <v>9</v>
+      </c>
+      <c r="G29" s="2">
+        <v>7</v>
+      </c>
+      <c r="H29" s="2">
+        <v>6</v>
+      </c>
+      <c r="I29" s="2">
+        <v>2</v>
+      </c>
+      <c r="J29" s="2">
         <v>8</v>
       </c>
-      <c r="F29" s="2">
-        <v>6</v>
-      </c>
-      <c r="G29" s="2">
-        <v>5</v>
-      </c>
-      <c r="H29" s="2">
-        <v>2</v>
-      </c>
-      <c r="I29" s="2">
-        <v>7</v>
-      </c>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
@@ -1482,7 +1622,7 @@
         <v>3.5</v>
       </c>
       <c r="D30" s="2">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="E30" s="2">
         <v>3.5</v>
@@ -1491,14 +1631,19 @@
         <v>3.5</v>
       </c>
       <c r="G30" s="2">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="H30" s="2">
+        <v>8</v>
+      </c>
+      <c r="I30" s="2">
         <v>3.5</v>
       </c>
-      <c r="I30" s="2">
-        <v>8</v>
-      </c>
+      <c r="J30" s="2">
+        <v>9</v>
+      </c>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
@@ -1519,23 +1664,28 @@
         <v>2</v>
       </c>
       <c r="D31" s="2">
+        <v>5</v>
+      </c>
+      <c r="E31" s="2">
         <v>4</v>
       </c>
-      <c r="E31" s="2">
+      <c r="F31" s="2">
         <v>3</v>
       </c>
-      <c r="F31" s="2">
-        <v>5</v>
-      </c>
       <c r="G31" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H31" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I31" s="2">
         <v>7</v>
       </c>
+      <c r="J31" s="2">
+        <v>8</v>
+      </c>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
@@ -1547,28 +1697,40 @@
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B32" s="4">
-        <v>2.5419999999999998</v>
+        <f t="shared" ref="B32:J32" si="0">AVERAGE(B20:B31)</f>
+        <v>3.25</v>
       </c>
       <c r="C32" s="4">
-        <v>3.0830000000000002</v>
+        <f t="shared" si="0"/>
+        <v>3.4166666666666665</v>
       </c>
       <c r="D32" s="4">
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>3.125</v>
       </c>
       <c r="E32" s="4">
-        <v>3.625</v>
+        <f t="shared" si="0"/>
+        <v>3.375</v>
       </c>
       <c r="F32" s="4">
-        <v>4.5419999999999998</v>
+        <f t="shared" si="0"/>
+        <v>4.375</v>
       </c>
       <c r="G32" s="4">
-        <v>6.0830000000000002</v>
+        <f t="shared" si="0"/>
+        <v>5.416666666666667</v>
       </c>
       <c r="H32" s="4">
-        <v>5.875</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="I32" s="4">
-        <v>7.25</v>
+        <f t="shared" si="0"/>
+        <v>6.791666666666667</v>
+      </c>
+      <c r="J32" s="4">
+        <f t="shared" si="0"/>
+        <v>8.25</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -1632,5 +1794,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>